--- a/PLAN/Schedule_Plane_s1.xlsx
+++ b/PLAN/Schedule_Plane_s1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_D79B825E292BB44858D6941DC3B6B4FE2C73EDFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{365E2D88-4905-4524-94E5-9CA4D687FCF2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_D79B825E292BB44858D6941DC3B6B4FE2C73EDFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5854834D-1F2C-410E-BE8F-8FD0611C8CC0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +90,6 @@
     <font>
       <sz val="10"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,7 +145,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -470,7 +463,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,14 +509,22 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" ht="14.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>44812</v>
+      </c>
+      <c r="D3" s="3">
+        <v>44812</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44812</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44812</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
@@ -585,33 +586,48 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76fe86574735934703a9bbd4ecb6641d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0967b7be50301903c78f9c39c6fd9af8">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E0F2D14518B5045B0D90F64D5BF74B7" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6db33e56d53feac802f5e54067a2ca1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="023f1dae-eefa-4464-9427-685eeabbe412" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cff158ef49836e8e3ea10648d076f642" ns2:_="">
+    <xsd:import namespace="023f1dae-eefa-4464-9427-685eeabbe412"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="023f1dae-eefa-4464-9427-685eeabbe412" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -713,8 +729,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425ED278-3C3F-413A-8377-EF0082B5C79A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4E370D7-E881-4830-9A47-107E88842794}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,5 +753,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41319C69-DD08-4868-A1E2-E95037BD0EC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425ED278-3C3F-413A-8377-EF0082B5C79A}"/>
 </file>